--- a/biology/Botanique/Sabal_causiarum/Sabal_causiarum.xlsx
+++ b/biology/Botanique/Sabal_causiarum/Sabal_causiarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Palmier sombrero, Sabal causiarum, est une espèce de plantes de la famille des Arecaceae (les palmiers), originaire d'Hispaniola, Puerto Rico et des îles Vierges britanniques. Comme ses noms commun et scientifique le suggèrent, ses feuilles étaient utilisées pour la fabrication de chapeaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabal causiarum est un palmier aux feuilles palmées, à la tige très robuste qui pousse jusqu'à 10 mètres de hauteur et atteint 35 à 70 cm de diamètre. Chaque tige a de 20 à 30 feuilles ayant chacune de 60 à 120 folioles. Les inflorescences, qui sont ramifiées, dressées ou pendantes et plus longues que les feuilles, donnent des fruits globuleux et noirs. Les fruits font de 0,7 à 1,1 cm de diamètre. La taille et la forme de fruits sont les principales caractéristiques de cette espèce, qui la diffèrent de Sabal domingensis.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Sabal est placé dans la sous-famille des Coryphoideae et la tribu des Sabaleae. En 2008, il ne semble y avoir aucune étude phylogénétique de ce genre et la relation entre S. causiarum et le reste du genre est incertaine.
 L'espèce a été décrite pour la première fois par le botaniste américain Orator F. Cook sous le nom d'Inodes causiarum en 1901. L'épithète causiarum signifie "de chapeaux", le mot latin fait référence à «un chapeau macédonien à large bord". Cook créa le genre Inodes pour intégrer les membres du genre Sabal à tige verticale et aux feuilles avec la nervure principale bien développée. Le naturaliste italien Odoardo Beccari transféra l'espèce dans le genre Sabal et créa le nom S. causiarum.
@@ -576,7 +592,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Inodes causiarum O.F.Cook
 Inodes glauca Dammer
